--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3804485.924411071</v>
+        <v>3822860.613877192</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051495</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>90.61225569134042</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>321.5320230099106</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>78.88684406884218</v>
       </c>
       <c r="S4" t="n">
-        <v>190.6249203329746</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>138.0869361432964</v>
       </c>
       <c r="W5" t="n">
-        <v>279.8132475974191</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>71.65284835004776</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>246.0394658505826</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>44.78053305661354</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>159.3199338524826</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>74.53436060286474</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>136.1916198885551</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>15.62652677326741</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.73564215572112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274125</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498026</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>12.68762643336728</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>2.7848426978551</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>53.06967592686479</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>45.88884117514942</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463102</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463107</v>
+        <v>42.28735533463032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463032</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169287</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329113</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373702</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789363</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346314</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415221</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>77.43280114252508</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1659.880644283887</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1688.333211902825</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
         <v>359.2716929833838</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>648.4453033288158</v>
       </c>
       <c r="S4" t="n">
-        <v>506.1616404812942</v>
+        <v>648.4453033288158</v>
       </c>
       <c r="T4" t="n">
-        <v>506.1616404812942</v>
+        <v>648.4453033288158</v>
       </c>
       <c r="U4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.1616404812942</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
         <v>1210.087414675782</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W5" t="n">
-        <v>2359.480757510918</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.014999249838</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>626.3354505650586</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>626.3354505650586</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>626.3354505650586</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>337.1618402196266</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1623.178216428725</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>895.9500008815633</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>510.161748283319</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>99.17584349371145</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1623.178216428725</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,7 +4887,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="V10" t="n">
-        <v>590.5616913897119</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="W10" t="n">
-        <v>590.5616913897119</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X10" t="n">
-        <v>590.5616913897119</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.7691122461817</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5136,10 +5136,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>600.2296059587558</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>431.2934230308489</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>281.1767836185131</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>281.1767836185131</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>281.1767836185131</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>113.0014619383337</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488384</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X13" t="n">
-        <v>818.2514655662918</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.4588864227617</v>
+        <v>781.8780707889955</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,19 +5288,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,49 +5501,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5552,10 +5552,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899335</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698952</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5738,43 +5738,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>330.8254548799445</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,19 +6066,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.1184791449342</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C25" t="n">
-        <v>416.1184791449342</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D25" t="n">
-        <v>416.1184791449342</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>268.2053855625411</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
         <v>265.3924131404652</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1445.310537298443</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1445.310537298443</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488384</v>
+        <v>1445.310537298443</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429516</v>
+        <v>1190.626049092556</v>
       </c>
       <c r="W25" t="n">
-        <v>644.1080300429516</v>
+        <v>1190.626049092556</v>
       </c>
       <c r="X25" t="n">
-        <v>416.1184791449342</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.1184791449342</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,43 +6215,43 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6263,10 +6263,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H31" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6722,13 +6722,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H34" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982963</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,13 +6938,13 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619129</v>
@@ -6968,13 +6968,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982963</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7175,49 +7175,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,7 +7366,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7403,25 +7403,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108317</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229658</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506711</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308319</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504496</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103112</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010304</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,25 +7649,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,13 +7679,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590536</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028587</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7837,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>1131.572681122445</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>1131.572681122445</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>1131.572681122445</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>910.7801019789154</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>127.6461250100651</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.2873015942687</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>145.974013233316</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.43092547709125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>213.0220289556699</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>142.6362053250761</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>144.8511340567385</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>179.8208142138877</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.918465386552271e-12</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26077,16 +26077,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>174.7048421813029</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685349.1677531534</v>
+        <v>685349.1677531535</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="E2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="G2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="H2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="K2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="E2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="F2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="M2" t="n">
+        <v>779989.6813710697</v>
+      </c>
+      <c r="N2" t="n">
+        <v>779989.6813710699</v>
+      </c>
+      <c r="O2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="H2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="I2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.213501647</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371246</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029926</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.15203161965</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.15203161966</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.5455523023</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69856.37439215355</v>
+        <v>-67328.05322871101</v>
       </c>
       <c r="C6" t="n">
-        <v>520111.5048223912</v>
+        <v>522639.8259858334</v>
       </c>
       <c r="D6" t="n">
-        <v>520111.5048223912</v>
+        <v>522639.8259858333</v>
       </c>
       <c r="E6" t="n">
-        <v>94469.48628573489</v>
+        <v>96504.30552373214</v>
       </c>
       <c r="F6" t="n">
-        <v>619629.5227626312</v>
+        <v>621664.3420006282</v>
       </c>
       <c r="G6" t="n">
-        <v>619629.5227626315</v>
+        <v>621664.3420006281</v>
       </c>
       <c r="H6" t="n">
-        <v>619629.5227626312</v>
+        <v>621664.3420006284</v>
       </c>
       <c r="I6" t="n">
-        <v>619629.5227626315</v>
+        <v>621664.3420006281</v>
       </c>
       <c r="J6" t="n">
-        <v>443206.303570038</v>
+        <v>445241.1228080352</v>
       </c>
       <c r="K6" t="n">
-        <v>574011.9114157117</v>
+        <v>576046.7306537083</v>
       </c>
       <c r="L6" t="n">
-        <v>628517.4235194244</v>
+        <v>630552.2427574211</v>
       </c>
       <c r="M6" t="n">
-        <v>493716.4082855867</v>
+        <v>495751.2275235844</v>
       </c>
       <c r="N6" t="n">
-        <v>628517.4235194243</v>
+        <v>630552.2427574217</v>
       </c>
       <c r="O6" t="n">
-        <v>628517.423519424</v>
+        <v>630552.242757421</v>
       </c>
       <c r="P6" t="n">
-        <v>619629.5227626312</v>
+        <v>621664.3420006285</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>274.6606360796671</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33.15101861077238</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>67.77834791131568</v>
       </c>
       <c r="S4" t="n">
-        <v>21.52061861704433</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>189.6653223268385</v>
       </c>
       <c r="W5" t="n">
-        <v>69.42772111999392</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.01234363011007</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>6.098177473245357</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>369.0036369641815</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>168.4323246176523</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>72.13083137729312</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>115.9460234352729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706461</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520611</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822860.613877192</v>
+        <v>3897959.39928932</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7775574.81592529</v>
+        <v>7674126.790167707</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>321.5320230099106</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.6621898072149</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>78.88684406884218</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>230.7427785993218</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>138.0869361432964</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>246.0394658505826</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>78.10065894224091</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>44.78053305661354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>49.58595117973767</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>74.53436060286474</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274049</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>15.62652677326741</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>97.12772045570674</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>143.3158222056515</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>22.42123215846201</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.06967592686479</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>34.22759348994876</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.97948033333861</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463189</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>220.2131102961575</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373699</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415219</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>202.5457551949521</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206823</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>72.14107628195018</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373699</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463032</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415219</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>45.90234712787159</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>45.72523033531994</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>54.68632445964462</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.295728843236</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.333211902825</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.295728843236</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,7 +4412,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>648.4453033288158</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>648.4453033288158</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>648.4453033288158</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>359.2716929833838</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>359.2716929833838</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
         <v>799.1015098861748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2326.461160182788</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1973.692504912674</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1600.226746651594</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.087414675782</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,46 +4649,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1623.178216428725</v>
+        <v>1284.970060705655</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.215699488314</v>
+        <v>916.0075437652436</v>
       </c>
       <c r="D8" t="n">
-        <v>895.9500008815633</v>
+        <v>557.7418451584931</v>
       </c>
       <c r="E8" t="n">
-        <v>510.161748283319</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>99.17584349371145</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404537</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.178216428725</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>652.8417512742476</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>652.8417512742476</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>652.8417512742476</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>652.8417512742476</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>652.8417512742476</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>652.8417512742476</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X10" t="n">
-        <v>424.8522003762303</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822459</v>
@@ -5039,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5057,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>600.2296059587558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>431.2934230308489</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>281.1767836185131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>281.1767836185131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>281.1767836185131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>113.0014619383337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X13" t="n">
-        <v>781.8780707889955</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.8780707889955</v>
+        <v>136.7278130442836</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5458,25 +5460,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5492,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5552,10 +5554,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5713,7 +5715,7 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5741,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1476.268561306931</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1221.584073101044</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>932.166903064083</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>932.166903064083</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>711.3743239205529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6077,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.1954542207687</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1445.310537298443</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1445.310537298443</v>
+        <v>1264.422933715931</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.310537298443</v>
+        <v>1264.422933715931</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.626049092556</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.626049092556</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X25" t="n">
-        <v>962.6364981945386</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.8439190510085</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6248,7 +6250,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635878</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
         <v>1736.599915964471</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>4076.539318291369</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>3907.603135363462</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>4606.170084808407</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>4316.752914771446</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>4316.752914771446</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>4258.187783121609</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6473,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6548,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O30" t="n">
-        <v>2302.237516093321</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103134</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982979</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1165.403681972094</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>876.2750431856521</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>876.2750431856521</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>586.8578731486914</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6694,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6719,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6783,19 +6785,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506717</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>983.329485121187</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>983.329485121187</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>3203.974306639288</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>4008.385884903439</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>4287.925950122136</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108323</v>
+        <v>4279.002365959436</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229664</v>
+        <v>4110.066183031529</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506717</v>
+        <v>4110.066183031529</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>3962.153089449136</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982963</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>4460.650830789676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376741</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>588.5027791527954</v>
       </c>
     </row>
     <row r="41">
@@ -7406,34 +7408,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>3340.964766294737</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>3670.82739395877</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4034.814521865531</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>4251.296547201589</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>4082.360364273682</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>4432.945012031828</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>4432.945012031828</v>
       </c>
     </row>
     <row r="44">
@@ -7625,43 +7627,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795201</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899126</v>
@@ -7670,25 +7672,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7710,40 +7712,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845934</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1670.043068977056</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1999.905696641089</v>
       </c>
       <c r="O45" t="n">
-        <v>1818.397748747283</v>
+        <v>2279.445761859787</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>1098.712528333289</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>1098.712528333289</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>169.2863157167181</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>73.64859338270685</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9723,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>73.64859338270696</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10194,25 +10196,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.75994765618401</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>283.6093329825493</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>127.6461250100651</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>85.30006332127675</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.661214550443</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>308.1251096272036</v>
+        <v>52.49733361304828</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>140.7163658137795</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2873015942687</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>263.8161202401153</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>144.8511340567385</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>187.3199675684405</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>160.6051730187562</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.334450762231711</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>19.00180586343717</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>73.27997174098107</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>121.3444739707562</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.8902426828924</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,13 +26079,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>231.8366738769464</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
@@ -26320,40 +26322,40 @@
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="H2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="I2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.681371069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710699</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710693</v>
-      </c>
       <c r="P2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26390,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.080067684408276e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26433,31 +26435,31 @@
         <v>29303.54555230238</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="K4" t="n">
-        <v>51722.33279362282</v>
-      </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362283</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362282</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230225</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871101</v>
+        <v>-67328.05322871113</v>
       </c>
       <c r="C6" t="n">
         <v>522639.8259858334</v>
@@ -26528,40 +26530,40 @@
         <v>522639.8259858333</v>
       </c>
       <c r="E6" t="n">
-        <v>96504.30552373214</v>
+        <v>96504.30552373183</v>
       </c>
       <c r="F6" t="n">
-        <v>621664.3420006282</v>
+        <v>621664.3420006281</v>
       </c>
       <c r="G6" t="n">
         <v>621664.3420006281</v>
       </c>
       <c r="H6" t="n">
+        <v>621664.3420006282</v>
+      </c>
+      <c r="I6" t="n">
         <v>621664.3420006284</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>445241.1228080353</v>
+      </c>
+      <c r="K6" t="n">
         <v>621664.3420006281</v>
       </c>
-      <c r="J6" t="n">
-        <v>445241.1228080352</v>
-      </c>
-      <c r="K6" t="n">
-        <v>576046.7306537083</v>
-      </c>
       <c r="L6" t="n">
-        <v>630552.2427574211</v>
+        <v>621664.3420006284</v>
       </c>
       <c r="M6" t="n">
-        <v>495751.2275235844</v>
+        <v>486863.3267667911</v>
       </c>
       <c r="N6" t="n">
-        <v>630552.2427574217</v>
+        <v>621664.3420006281</v>
       </c>
       <c r="O6" t="n">
-        <v>630552.242757421</v>
+        <v>621664.3420006282</v>
       </c>
       <c r="P6" t="n">
-        <v>621664.3420006285</v>
+        <v>621664.3420006274</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.27836717816564e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.27836717816564e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.27836717816564e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26771,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>33.15101861077238</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>239.2681802650469</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>67.77834791131568</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>202.924692362643</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>151.18759147294</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>189.6653223268385</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>6.098177473245357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>56.93405031343806</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>303.8297111300209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>369.0036369641815</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,22 +27903,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>130.2460290021996</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>72.13083137729312</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.172838416093611e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>451.6500179578263</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>224.2240319706461</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>343.3468637082227</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36443,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
@@ -36683,7 +36685,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>406.8431667807198</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36914,25 +36916,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>374.9545210541968</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>618.5494866776701</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37166,7 +37168,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>490.7027479140739</v>
       </c>
       <c r="Q36" t="n">
         <v>88.0130327850741</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520613</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>513.2182750716</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7395399415897</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623849</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109007</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594841</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004669</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P45" t="n">
-        <v>515.2185245587283</v>
+        <v>259.5907485445736</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3897959.39928932</v>
+        <v>3890942.384397609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674126.790167707</v>
+        <v>7674126.790167706</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.6621898072149</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>80.37418673446216</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>230.7427785993218</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7.144861365174848</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>229.5889480231529</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>316.4441248404009</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>78.10065894224091</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1192,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58595117973767</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.11561436815781</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>97.12772045570674</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>39.890650531673</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896905</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>22.42123215846201</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>34.22759348994876</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.97948033333861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>220.2131102961575</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>202.5457551949521</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>72.14107628195018</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.90234712787159</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.72523033531994</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>54.68632445964462</v>
+        <v>177.6778654977374</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>713.5043138828189</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>302.5184090932113</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>288.5950050318023</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.083041312479</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1039.120524372067</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1039.120524372067</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.6828813766</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.6828813766</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,43 +4652,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>209.0731070847524</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.970060705655</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>916.0075437652436</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>557.7418451584931</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.970060705655</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030239</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858311</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>357.5203921878137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.7278130442836</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>1258.702674077826</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>1004.018185871939</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1476.268561306931</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1221.584073101044</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>932.166903064083</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>932.166903064083</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6004,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1264.422933715931</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1264.422933715931</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.738445510044</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.738445510044</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>781.7488946120263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,13 +6250,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4076.539318291369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3907.603135363462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014293</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014293</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808407</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771446</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>4316.752914771446</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>4258.187783121609</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6490,16 +6490,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1165.403681972094</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>876.2750431856521</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>876.2750431856521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>586.8578731486914</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>983.329485121187</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U34" t="n">
-        <v>983.329485121187</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V34" t="n">
-        <v>983.329485121187</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W34" t="n">
-        <v>693.9123150842264</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X34" t="n">
-        <v>465.9227641862091</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,13 +6973,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359327</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>3203.974306639288</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>4008.385884903439</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>4287.925950122136</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4279.002365959436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4110.066183031529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4110.066183031529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3962.153089449136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789676</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4460.650830789676</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.650830789676</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>4460.650830789676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4460.650830789676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,10 +7153,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405197</v>
@@ -7165,19 +7165,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,16 +7262,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3670.82739395877</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4034.814521865531</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4251.296547201589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4082.360364273682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>4660.934562929845</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>4660.934562929845</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>4660.934562929845</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>4432.945012031828</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>4432.945012031828</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,43 +7627,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795201</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899126</v>
@@ -7672,25 +7672,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7712,40 +7712,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277041</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.6749225845934</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977056</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641089</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2279.445761859787</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333289</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333289</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>1043.47381675789</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X46" t="n">
-        <v>815.4842658598729</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>87.16935584025435</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2863157167181</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>32.92248665775651</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>73.64859338270696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.75994765618401</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>283.6093329825493</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>85.30006332127675</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.661214550443</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>52.49733361304828</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.7163658137795</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>124.4198406026825</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>246.3467018669043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>263.8161202401153</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>187.3199675684405</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.6051730187562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.334450762231711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>19.00180586343717</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>73.27997174098107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>121.3444739707562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.8902426828924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26079,13 +26079,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>231.8366738769464</v>
+        <v>108.8451328388536</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420606</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>742955.213501647</v>
@@ -26337,25 +26337,25 @@
         <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="K2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.080067684408276e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230234</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230235</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230225</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871113</v>
+        <v>-67328.05322871116</v>
       </c>
       <c r="C6" t="n">
+        <v>522639.8259858332</v>
+      </c>
+      <c r="D6" t="n">
         <v>522639.8259858334</v>
       </c>
-      <c r="D6" t="n">
-        <v>522639.8259858333</v>
-      </c>
       <c r="E6" t="n">
-        <v>96504.30552373183</v>
+        <v>95529.71426401028</v>
       </c>
       <c r="F6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409062</v>
       </c>
       <c r="G6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="H6" t="n">
-        <v>621664.3420006282</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="I6" t="n">
-        <v>621664.3420006284</v>
+        <v>620689.7507409068</v>
       </c>
       <c r="J6" t="n">
-        <v>445241.1228080353</v>
+        <v>444266.5315483138</v>
       </c>
       <c r="K6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409069</v>
       </c>
       <c r="L6" t="n">
-        <v>621664.3420006284</v>
+        <v>620689.7507409066</v>
       </c>
       <c r="M6" t="n">
-        <v>486863.3267667911</v>
+        <v>485888.7355070695</v>
       </c>
       <c r="N6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409066</v>
       </c>
       <c r="O6" t="n">
-        <v>621664.3420006282</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="P6" t="n">
-        <v>621664.3420006274</v>
+        <v>620689.7507409065</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.27836717816564e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.27836717816564e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.27836717816564e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,25 +26743,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>239.2681802650469</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>243.548586029895</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.85718120047569</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>202.924692362643</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>151.18759147294</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,25 +27666,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>168.1320336449676</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>38.05509782336215</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>56.93405031343806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>66.28971682307969</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>303.8297111300209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.2460290021996</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.172838416093611e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>336.4270607962786</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>451.6500179578263</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>343.3468637082227</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>406.8431667807198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>374.9545210541968</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>490.7027479140739</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>513.2182750716</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>367.6637655623849</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109007</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594841</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004669</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5907485445736</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3890942.384397609</v>
+        <v>3895881.647246642</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674126.790167706</v>
+        <v>7674126.790167707</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>80.37418673446216</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>33.20988753395294</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>73.31370764131945</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>105.4275274935938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>6.283679164003906</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.144861365174848</v>
+        <v>22.98569063694824</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>316.4441248404009</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>249.1785093554403</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053131</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.83808333974876</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274091</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>39.890650531673</v>
+        <v>55.1539311568782</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750034</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.743810140442</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>117.3943314176229</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>91.5324703050714</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>177.6778654977374</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1099.292566481063</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1099.292566481063</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1099.292566481063</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>713.5043138828189</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>302.5184090932113</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>288.5950050318023</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
         <v>190.2718927217162</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1452.115530175776</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1083.153013235364</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>724.8873146286135</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>724.8873146286135</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>313.9014098390059</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2690.801940347511</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.1897464970881</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>359.1897464970881</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>209.0731070847524</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>61.16001350235925</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F7" t="n">
-        <v>61.16001350235925</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G7" t="n">
-        <v>61.16001350235925</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H7" t="n">
-        <v>61.16001350235925</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="I7" t="n">
-        <v>61.16001350235925</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.1897464970881</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2050.641472309061</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1719.57858496549</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1719.57858496549</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.455337753612</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.6010158349783</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070714</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947357</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1258.702674077826</v>
+        <v>1332.130125547123</v>
       </c>
       <c r="V16" t="n">
-        <v>1004.018185871939</v>
+        <v>1332.130125547123</v>
       </c>
       <c r="W16" t="n">
-        <v>714.6010158349783</v>
+        <v>1042.712955510163</v>
       </c>
       <c r="X16" t="n">
-        <v>714.6010158349783</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.6010158349783</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028587</v>
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515096</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,13 +6542,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6867,13 +6867,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1305.326886885503</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1016.198248099061</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V34" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1418.639292072831</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,13 +7490,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>807.0580565471716</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>638.1218736192648</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>488.005234206929</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>340.0921406245359</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>340.0921406245359</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>340.0921406245359</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>189.6741321724792</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>988.7065213774114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7645,13 +7645,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,37 +7660,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>246.3467018669043</v>
+        <v>231.0834212416991</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>79.43092547709142</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>29.89407122271382</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.39383318338596</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>206.7631436983567</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>169.1286669189681</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>18.8867751592006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>108.8451328388536</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.2474420606</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="15">
@@ -26316,22 +26316,22 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="H2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="H2" t="n">
-        <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016473</v>
@@ -26340,22 +26340,22 @@
         <v>742955.2135016472</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="M2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="N2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="H4" t="n">
-        <v>29303.54555230228</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230231</v>
-      </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871116</v>
+        <v>-67328.05322871127</v>
       </c>
       <c r="C6" t="n">
-        <v>522639.8259858332</v>
+        <v>522639.8259858334</v>
       </c>
       <c r="D6" t="n">
         <v>522639.8259858334</v>
       </c>
       <c r="E6" t="n">
-        <v>95529.71426401028</v>
+        <v>96406.84639775995</v>
       </c>
       <c r="F6" t="n">
-        <v>620689.7507409062</v>
+        <v>621566.8828746559</v>
       </c>
       <c r="G6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746564</v>
       </c>
       <c r="H6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.882874656</v>
       </c>
       <c r="I6" t="n">
-        <v>620689.7507409068</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="J6" t="n">
-        <v>444266.5315483138</v>
+        <v>445143.6636820634</v>
       </c>
       <c r="K6" t="n">
-        <v>620689.7507409069</v>
+        <v>621566.882874656</v>
       </c>
       <c r="L6" t="n">
-        <v>620689.7507409066</v>
+        <v>621566.8828746561</v>
       </c>
       <c r="M6" t="n">
-        <v>485888.7355070695</v>
+        <v>486765.8676408186</v>
       </c>
       <c r="N6" t="n">
-        <v>620689.7507409066</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="O6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746558</v>
       </c>
       <c r="P6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746561</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,31 +26968,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>243.548586029895</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>112.2111604889783</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.85718120047569</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>308.3566425272012</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>168.1320336449676</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>38.05509782336215</v>
+        <v>22.21426855158877</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.28971682307969</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.045658152849029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380965</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>7.361875848788245</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
